--- a/testData/alarm_strategy_test_data.xlsx
+++ b/testData/alarm_strategy_test_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
@@ -11,17 +11,16 @@
     <sheet name="runningState" sheetId="2" r:id="rId2"/>
     <sheet name="runStateCheck" sheetId="3" r:id="rId3"/>
     <sheet name="AutException" sheetId="4" r:id="rId4"/>
-    <sheet name="Detour" sheetId="5" r:id="rId5"/>
-    <sheet name="searchByType" sheetId="6" r:id="rId6"/>
-    <sheet name="searchByLevel" sheetId="9" r:id="rId7"/>
-    <sheet name="userMessagee" sheetId="10" r:id="rId8"/>
+    <sheet name="searchByType" sheetId="6" r:id="rId5"/>
+    <sheet name="searchByLevel" sheetId="9" r:id="rId6"/>
+    <sheet name="userMessagee" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="51">
   <si>
     <t>测试点说明0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,22 +115,6 @@
   </si>
   <si>
     <t>test-F07-S20-T36-AutException-004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置绕行告警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>忽略以下IP来源3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.16.10.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> test-F07-S20-T37-Detour-005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,8 +228,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,11 +365,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -428,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,9 +451,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -494,6 +486,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -669,14 +662,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
@@ -684,7 +677,7 @@
     <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -698,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -720,14 +713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
@@ -741,7 +734,7 @@
     <col min="10" max="10" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -773,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1">
+    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -813,14 +806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
@@ -834,7 +827,7 @@
     <col min="10" max="10" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -866,7 +859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1">
+    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -898,7 +891,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1">
+    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -938,14 +931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5546875" customWidth="1"/>
     <col min="2" max="2" width="21.77734375" customWidth="1"/>
@@ -953,7 +946,7 @@
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -967,7 +960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -988,22 +981,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="4" width="20.77734375" customWidth="1"/>
-    <col min="5" max="5" width="40.21875" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1011,30 +1004,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1044,86 +1053,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.109375" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
@@ -1131,7 +1068,7 @@
     <col min="4" max="4" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1139,106 +1076,106 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1248,15 +1185,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="23.6640625" customWidth="1"/>
@@ -1264,7 +1201,7 @@
     <col min="4" max="4" width="38.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1272,24 +1209,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
